--- a/docs/StructureDefinition-SpaceEquipment.xlsx
+++ b/docs/StructureDefinition-SpaceEquipment.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.0</t>
+    <t>0.4.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-06T20:45:50-06:00</t>
+    <t>2025-05-21T00:44:32-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -81,7 +81,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Device profile for commercial space equipment.</t>
+    <t>STUB - Device profile for commercial space equipment.</t>
   </si>
   <si>
     <t>Purpose</t>

--- a/docs/StructureDefinition-SpaceEquipment.xlsx
+++ b/docs/StructureDefinition-SpaceEquipment.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.4.0</t>
+    <t>0.4.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-21T00:44:32-05:00</t>
+    <t>2025-06-01T17:14:01-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-SpaceEquipment.xlsx
+++ b/docs/StructureDefinition-SpaceEquipment.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.4.1</t>
+    <t>0.4.2</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-01T17:14:01-05:00</t>
+    <t>2025-06-01T22:56:50-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-SpaceEquipment.xlsx
+++ b/docs/StructureDefinition-SpaceEquipment.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-01T22:56:50-05:00</t>
+    <t>2025-06-01T23:37:11-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-SpaceEquipment.xlsx
+++ b/docs/StructureDefinition-SpaceEquipment.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.4.2</t>
+    <t>0.5.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-01T23:37:11-05:00</t>
+    <t>2025-12-25T11:43:35-07:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -349,7 +349,7 @@
     <t>A human language.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
+    <t>http://hl7.org/fhir/ValueSet/languages|4.0.1</t>
   </si>
   <si>
     <t>Resource.language</t>
@@ -478,7 +478,7 @@
     <t>Device.definition</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(DeviceDefinition)
+    <t xml:space="preserve">Reference(DeviceDefinition|4.0.1)
 </t>
   </si>
   <si>
@@ -733,7 +733,7 @@
     <t>The availability status reason of the device.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/device-status-reason</t>
+    <t>http://hl7.org/fhir/ValueSet/device-status-reason|4.0.1</t>
   </si>
   <si>
     <t>Device.distinctIdentifier</t>
@@ -914,7 +914,7 @@
     <t>Codes to identify medical devices.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/device-type</t>
+    <t>http://hl7.org/fhir/ValueSet/device-type|4.0.1</t>
   </si>
   <si>
     <t>Device.specialization</t>
@@ -1050,7 +1050,7 @@
     <t>Device.patient</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Patient)
+    <t xml:space="preserve">Reference(Patient|4.0.1)
 </t>
   </si>
   <si>
@@ -1072,7 +1072,7 @@
     <t>Device.owner</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Organization)
+    <t xml:space="preserve">Reference(Organization|4.0.1)
 </t>
   </si>
   <si>
@@ -1110,7 +1110,7 @@
     <t>Device.location</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Location)
+    <t xml:space="preserve">Reference(Location|4.0.1)
 </t>
   </si>
   <si>
@@ -1172,7 +1172,7 @@
     <t>Device.parent</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Device)
+    <t xml:space="preserve">Reference(Device|4.0.1)
 </t>
   </si>
   <si>
@@ -1503,7 +1503,7 @@
     <col min="8" max="8" width="12.6875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="10.51171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="22.05078125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="26.640625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1518,7 +1518,7 @@
     <col min="23" max="23" width="15.01171875" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="34.984375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="41.32421875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="44.546875" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.07421875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.98046875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="16.2578125" customWidth="true" bestFit="true"/>

--- a/docs/StructureDefinition-SpaceEquipment.xlsx
+++ b/docs/StructureDefinition-SpaceEquipment.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.5.0</t>
+    <t>0.5.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-25T11:43:35-07:00</t>
+    <t>2025-12-29T13:16:13-07:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-SpaceEquipment.xlsx
+++ b/docs/StructureDefinition-SpaceEquipment.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.5.1</t>
+    <t>0.5.2</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-29T13:16:13-07:00</t>
+    <t>2025-12-29T20:17:52-07:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-SpaceEquipment.xlsx
+++ b/docs/StructureDefinition-SpaceEquipment.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.5.2</t>
+    <t>0.5.3</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-29T20:17:52-07:00</t>
+    <t>2025-12-29T22:23:37-07:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-SpaceEquipment.xlsx
+++ b/docs/StructureDefinition-SpaceEquipment.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.5.3</t>
+    <t>0.5.4</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-29T22:23:37-07:00</t>
+    <t>2025-12-29T23:18:22-07:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-SpaceEquipment.xlsx
+++ b/docs/StructureDefinition-SpaceEquipment.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.5.4</t>
+    <t>0.5.5</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-29T23:18:22-07:00</t>
+    <t>2025-12-30T00:07:25-07:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-SpaceEquipment.xlsx
+++ b/docs/StructureDefinition-SpaceEquipment.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-30T13:15:27-07:00</t>
+    <t>2025-12-30T19:11:20-07:00</t>
   </si>
   <si>
     <t>Publisher</t>
